--- a/NextPCB-Order/BOM/MDCBoard.xlsx
+++ b/NextPCB-Order/BOM/MDCBoard.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -28,96 +28,222 @@
     <t>Customer Remark</t>
   </si>
   <si>
+    <t>74LVC1G98GW,125</t>
+  </si>
+  <si>
+    <t>U3, U16, U17, U21, U22, U25</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TPS22919DCK</t>
+  </si>
+  <si>
+    <t>U5, U10, U11, U12, U13</t>
+  </si>
+  <si>
+    <t>DMG2305UX</t>
+  </si>
+  <si>
+    <t>Q4, Q5, Q6</t>
+  </si>
+  <si>
+    <t>PMPB10UPX</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3</t>
+  </si>
+  <si>
+    <t>TPS62A01DRLR</t>
+  </si>
+  <si>
+    <t>U7, U8, U9</t>
+  </si>
+  <si>
+    <t>SIT8021AI-J4-18S-16.000000E</t>
+  </si>
+  <si>
+    <t>X2, X3</t>
+  </si>
+  <si>
+    <t>AP7350-33CF4-7</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>BKP1005EM100-T</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>DT1446-04V-7</t>
+  </si>
+  <si>
+    <t>U27</t>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OT</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>MSP430FR2433IRGE</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>Q13FC13500005</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>RB168MM-40</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>STN101050B101</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>TPS2116DRLR</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>TS2306A 240gf MSM 9</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>W25Q40EWUXIE</t>
+  </si>
+  <si>
+    <t>U20</t>
+  </si>
+  <si>
+    <t>GRM155R61H104KE19D</t>
+  </si>
+  <si>
+    <t>C3, C4, C19, C22, C23, C24, C25, C26, C27, C29, C31, C34, C36, C39, C42, C43, C44, C46, C48, C50, C51, C52, C54, C55, C57, C58, C59, C63, C65, C67, C68, C69, C70, C72, C73, C74, C75, C77, C78, C79, C80, C81, C84</t>
+  </si>
+  <si>
+    <t>CL21A106KOQNNNE</t>
+  </si>
+  <si>
+    <t>C2, C6, C8, C10, C12, C20, C38, C41, C45, C47, C49, C53, C56, C60, C61, C62</t>
+  </si>
+  <si>
+    <t>TMK105CBJ225KV-F</t>
+  </si>
+  <si>
+    <t>C1, C5, C13, C14, C15, C16, C66, C71, C76, C82, C83, C85, C86, C87</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100KL</t>
+  </si>
+  <si>
+    <t>R1, R4, R5, R10, R11, R12, R13, R15, R17</t>
+  </si>
+  <si>
+    <t>RC0402JR-0710KL</t>
+  </si>
+  <si>
+    <t>R3, R25, R26, R27, R28, R29, R30, R37, R38</t>
+  </si>
+  <si>
+    <t>CL05B103KB5NNNC</t>
+  </si>
+  <si>
+    <t>C28, C30, C32, C33, C35, C37, C40, C64</t>
+  </si>
+  <si>
+    <t>WR04X203 JTL</t>
+  </si>
+  <si>
+    <t>R31, R32, R33, R34, R35, R36</t>
+  </si>
+  <si>
+    <t>RGC1/16SC1001DTH</t>
+  </si>
+  <si>
+    <t>R8, R21, R22, R39, R40</t>
+  </si>
+  <si>
+    <t>WR04X1000FQL</t>
+  </si>
+  <si>
+    <t>R18, R19, R20, R23, R24</t>
+  </si>
+  <si>
+    <t>KS DELLS1.22-JHKI-1</t>
+  </si>
+  <si>
+    <t>LED3, LED4, LED5, LED6</t>
+  </si>
+  <si>
+    <t>CIGT201610LH1R0MNE</t>
+  </si>
+  <si>
+    <t>L1, L2, L3</t>
+  </si>
+  <si>
+    <t>CL21A226MQQNNNG</t>
+  </si>
+  <si>
+    <t>C7, C9, C11</t>
+  </si>
+  <si>
+    <t>GRM1555C1H220JA01D</t>
+  </si>
+  <si>
+    <t>C17, C18, C21</t>
+  </si>
+  <si>
+    <t>AC0402FR-075K1L</t>
+  </si>
+  <si>
+    <t>R42, R43</t>
+  </si>
+  <si>
+    <t>RR0510P-302-D</t>
+  </si>
+  <si>
+    <t>R9, R41</t>
+  </si>
+  <si>
+    <t>WR04X3653FTL</t>
+  </si>
+  <si>
+    <t>R6, R16</t>
+  </si>
+  <si>
     <t>105162-0001</t>
   </si>
   <si>
     <t>J9</t>
   </si>
   <si>
-    <t>74LVC1G98GW,125</t>
-  </si>
-  <si>
-    <t>U3, U16, U17, U21, U22, U25</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>J5</t>
   </si>
   <si>
-    <t>AC0402FR-075K1L</t>
-  </si>
-  <si>
-    <t>R42, R43</t>
-  </si>
-  <si>
-    <t>AP7350-33CF4-7</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>BKP1005EM100-T</t>
-  </si>
-  <si>
-    <t>FB1</t>
-  </si>
-  <si>
-    <t>CIGT201610LH1R0MNE</t>
-  </si>
-  <si>
-    <t>L1, L2, L3</t>
-  </si>
-  <si>
-    <t>CL05B103KB5NNNC</t>
-  </si>
-  <si>
-    <t>C28, C30, C32, C33, C35, C37, C40, C64</t>
-  </si>
-  <si>
-    <t>CL21A106KOQNNNE</t>
-  </si>
-  <si>
-    <t>C2, C6, C8, C10, C12, C20, C38, C41, C45, C47, C49, C53, C56, C60, C61, C62</t>
-  </si>
-  <si>
-    <t>CL21A226MQQNNNG</t>
-  </si>
-  <si>
-    <t>C7, C9, C11</t>
-  </si>
-  <si>
     <t>CR0402-JW-272GLF</t>
   </si>
   <si>
     <t>R7</t>
   </si>
   <si>
-    <t>DMG2305UX</t>
-  </si>
-  <si>
-    <t>Q4, Q5, Q6</t>
-  </si>
-  <si>
-    <t>DT1446-04V-7</t>
-  </si>
-  <si>
-    <t>U27</t>
-  </si>
-  <si>
-    <t>GRM1555C1H220JA01D</t>
-  </si>
-  <si>
-    <t>C17, C18, C21</t>
-  </si>
-  <si>
-    <t>GRM155R61H104KE19D</t>
-  </si>
-  <si>
-    <t>C3, C4, C19, C22, C23, C24, C25, C26, C27, C29, C31, C34, C36, C39, C42, C43, C44, C46, C48, C50, C51, C52, C54, C55, C57, C58, C59, C63, C65, C67, C68, C69, C70, C72, C73, C74, C75, C77, C78, C79, C80, C81, C84</t>
-  </si>
-  <si>
     <t>KR DELPS1.22-UHVI-26-H3Q4</t>
   </si>
   <si>
@@ -130,106 +256,22 @@
     <t>LED1</t>
   </si>
   <si>
-    <t>NXB0102UN</t>
+    <t>NXB0102UNZ</t>
   </si>
   <si>
     <t>U15</t>
   </si>
   <si>
-    <t>PMPB10UPX</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q3</t>
-  </si>
-  <si>
-    <t>RB168MM-40</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>RC0402FR-07100KL</t>
-  </si>
-  <si>
-    <t>R1, R4, R5, R10, R11, R12, R13, R15, R17</t>
-  </si>
-  <si>
     <t>RC0402FR-13200KL</t>
   </si>
   <si>
     <t>R14</t>
   </si>
   <si>
-    <t>RC0402JR-0710KL</t>
-  </si>
-  <si>
-    <t>R3, R25, R26, R27, R28, R29, R30, R37, R38</t>
-  </si>
-  <si>
-    <t>RGC1/16SC1001DTH</t>
-  </si>
-  <si>
-    <t>R8, R21, R22, R39, R40</t>
-  </si>
-  <si>
-    <t>RR0510P-302-D</t>
-  </si>
-  <si>
-    <t>R9, R41</t>
-  </si>
-  <si>
-    <t>STN101050B101</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>TMK105CBJ225KV-F</t>
-  </si>
-  <si>
-    <t>C1, C5, C13, C14, C15, C16, C66, C71, C76, C82, C83, C85, C86, C87</t>
-  </si>
-  <si>
-    <t>TPS22919DCK</t>
-  </si>
-  <si>
-    <t>U5, U10, U11, U12, U13</t>
-  </si>
-  <si>
-    <t>TPS62A01DRLR</t>
-  </si>
-  <si>
-    <t>U7, U8, U9</t>
-  </si>
-  <si>
-    <t>TS2306A 240gf MSM 9</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>WR04X1000FQL</t>
-  </si>
-  <si>
-    <t>R18, R19, R20, R23, R24</t>
-  </si>
-  <si>
-    <t>WR04X203 JTL</t>
-  </si>
-  <si>
-    <t>R31, R32, R33, R34, R35, R36</t>
-  </si>
-  <si>
     <t>WR04X3003FTL</t>
   </si>
   <si>
     <t>R2</t>
-  </si>
-  <si>
-    <t>WR04X3653FTL</t>
-  </si>
-  <si>
-    <t>R6, R16</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1560,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1556,258 +1598,282 @@
         <v>5</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" t="s" s="6">
+        <v>7</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="10">
         <v>7</v>
-      </c>
-      <c r="B3" s="9">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s" s="10">
-        <v>9</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="12">
-        <v>781710002</v>
+      <c r="A4" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="B4" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D8" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="D9" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="D9" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="9">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="D10" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="D10" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="D11" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="D11" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="D12" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="D12" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
       </c>
       <c r="C14" t="s" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D15" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="D15" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="9">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="D16" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="D16" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="9">
         <v>1</v>
       </c>
       <c r="C17" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="D17" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="D17" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="9">
         <v>1</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="D18" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="9">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -1815,45 +1881,41 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="9">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s" s="10">
-        <v>9</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s" s="10">
-        <v>9</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="9">
         <v>9</v>
       </c>
       <c r="C22" t="s" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1861,13 +1923,13 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -1875,13 +1937,13 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -1889,13 +1951,13 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1903,13 +1965,13 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1917,29 +1979,27 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s" s="10">
-        <v>9</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" s="9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1947,61 +2007,55 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s" s="10">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s" s="10">
-        <v>9</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" s="9">
         <v>3</v>
       </c>
       <c r="C30" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="D30" t="s" s="10">
-        <v>9</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s" s="10">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s" s="10">
-        <v>9</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -2009,13 +2063,13 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -2023,13 +2077,13 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2037,17 +2091,115 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="12">
+        <v>781710002</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="8">
+        <v>77</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" t="s" s="8">
+        <v>79</v>
+      </c>
+      <c r="B39" s="9">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" t="s" s="8">
+        <v>81</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" t="s" s="8">
+        <v>83</v>
+      </c>
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s" s="10">
+        <v>86</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
